--- a/end-plugins/import.xlsx
+++ b/end-plugins/import.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\GitHub\cerebro-plugins\end-plugins\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -443,7 +443,7 @@
   <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +522,9 @@
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
